--- a/biology/Médecine/Mésenchyme/Mésenchyme.xlsx
+++ b/biology/Médecine/Mésenchyme/Mésenchyme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9senchyme</t>
+          <t>Mésenchyme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mésenchyme est un tissu de soutien embryonnaire à l'origine de diverses formes de ces tissus chez l'adulte. 
 Embryologiquement, il est souvent dérivé du sclérotome, lui-même dérivant du mésoderme para-axial, mais un tissu ayant une autre origine peut très bien avoir des caractéristiques anatomiques mésenchymateuses, et y être donc assimilé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9senchyme</t>
+          <t>Mésenchyme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mésenchyme comme stroma</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par abus de langage, on l'oppose usuellement au mot parenchyme qui désigne les tissus nobles des organes. Le mésenchyme, ainsi défini, aussi dénommé sous cette acception stroma, est un tissu considéré comme ayant deux rôles pour le parenchyme :
 Mécanique : de remplissage, de soutien. Il donne la forme à l'organe et le maintient en place ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9senchyme</t>
+          <t>Mésenchyme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Origine embryonnaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La majeure partie du mésenchyme est dérivée du mésoderme. Il existe cependant des tissus mésenchymateux ayant une origine notamment ectodermique. C'est le cas notamment de certains organes du squelette facial, dont les cellules ont pour origine une migration depuis les crêtes neurales. Ce mésenchyme provient donc de tissu neurectodermique.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9senchyme</t>
+          <t>Mésenchyme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une architecture mésenchymateuse supracellulaire peut être définie par contraste avec l’organisation épithéliale supracellulaire par :
 des interactions entre les cellules telle qu’une couche cellulaire continue ne peut être formée ;
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9senchyme</t>
+          <t>Mésenchyme</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Transition épithélio-mésenchymateuse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Passage d'un épithélium dont les cellules polarisées sont liées par des jonctions serrées, des jonctions gap, des jonctions adhérentes, et des desmosomes à un mésenchyme où les cellules ne sont plus liées entre elles mais constituent un tissu de soutien relié par la matrice extracellulaire et où les cellules sont capables de migration.
 Événements cellulaires nécessaires à la transition épithélio-mésenchymateuse :
@@ -634,9 +654,43 @@
 Cicatrisation
 Régénération
 Fibrose
-Cancer
-Marqueurs cellulaires notoires
-Épithélium
+Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mésenchyme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9senchyme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Transition épithélio-mésenchymateuse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Marqueurs cellulaires notoires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Épithélium
 Cadhérine E
 Claudine
 Occludine
@@ -649,9 +703,43 @@
 AIFM2 ou FSP1
 Vimentine
 Actine de muscle lisse
-FGFII2b et 3c
-Mécanismes impliqués
-Disparition des jonctions serrées (facteurs de croissance, cytokines, ECM)
+FGFII2b et 3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mésenchyme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9senchyme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Transition épithélio-mésenchymateuse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mécanismes impliqués</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Disparition des jonctions serrées (facteurs de croissance, cytokines, ECM)
 Disparition des jonctions adhérentes, desmosomes, E-cadhérine
 Réorganisation du cytosquelette d’actine et perte de polarité
 Changement de types de filaments intermédiaires : cytokératines-vimentine
@@ -665,9 +753,43 @@
 N-cadhérine
 Fibronectine
 Vitronectine
-Vimentine
-Modèles d’étude de la transition épithélio-mésenchymateuse
-Modèles de cellules épithéliales embryonnaires
+Vimentine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mésenchyme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9senchyme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Transition épithélio-mésenchymateuse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Modèles d’étude de la transition épithélio-mésenchymateuse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Modèles de cellules épithéliales embryonnaires
 Gastrulation chez les vertébrés (xénope, poulet) : changements de morphologie cellulaire (cellules en bouteille, ligne primitive)
 Répression de l’E-cadhérine - Rupture de la lame basale - Expression de la N-cadhérine
 Gastrulation chez les arthropodes (Drosophile)
@@ -687,16 +809,85 @@
 La transition épithélio-mésenchymateuse est associée à des sauts évolutifs majeurs : animaux triploblastiques, vertébrés.
 Activation de la voie β-caténine
 L’absence de l’E-cadhérine dans des cellules ES entraîne une redistribution de la béta-caténine dans le noyau.
-La β-caténine est transitoirement accumulée dans le noyau des cellules des crêtes neurales à la suite de la délamination.
-Facteurs de transcription impliqués
-La TEM met en jeu un répertoire restreint de facteurs de transcription :
+La β-caténine est transitoirement accumulée dans le noyau des cellules des crêtes neurales à la suite de la délamination.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mésenchyme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9senchyme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Transition épithélio-mésenchymateuse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Facteurs de transcription impliqués</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La TEM met en jeu un répertoire restreint de facteurs de transcription :
 Snail (Snail-1, Slug) (inhibe N et E-cadhérine Occludine Claudine et active MMP9, metalloprotéase et est inhibé par GSK3β) ;
 ZEB (SIP-1) (inhibe E-cadherin) ;
 bHLH (Twist, E-47) ;
 Ets (active Intégrines VE-cadhérine Métalloprotéases et est inhibé par Ras/MapK, CAM Kinase II).
 Ets-1 est exprimé par les cellules des crêtes neurales au cours de leur délamination. La surexpression ectopique d’Ets-1 induit une TEM avec rupture de la lame basale mais pas la migration.
-Voies de signalisation
-Les voies d’induction de la transition épithélio-mésenchymateuse sont multiples :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mésenchyme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9senchyme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Transition épithélio-mésenchymateuse</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Voies de signalisation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les voies d’induction de la transition épithélio-mésenchymateuse sont multiples :
 Morphogènes/Facteurs de croissance
 TGF-béta/BMPs
 FGF/EGF/TGF-béta
@@ -713,11 +904,45 @@
 voie BMP-4 ;
 voie Wnt-1 induced proliferation and EMT ;
 voie Notch-Delta controled lateral inhibition and EMT ;
-division cellulaire asymétrique.
-Transitions épithélio-mésenchymateuses (EMT) et Cancer
-Les caractéristiques moléculaires de l'EMT : celles-ci incluent une sous-régulation de E-cadhérine responsable de la perte de l'adhésion intercellulaire et un détachement subséquent d'avec l'épithélium parent; une sur-régulation de protéases dégradant la matrice qui digèrent la membrane basale épithéliale ; une sur-régulation et/ou une translocation de facteurs de transcription sous-tendant le programme génétique spécifique de l'EMT, à savoir la caténine beta, les Smads, et des membres de la famille Snail, la création de l'expression de protéines mésenchymateuse tel que la fibroblast specific protein 1 (FSP1), de vimentine, et d'actine alpha de muscle lisse, la réorganisation cytosquelettique par l'intermédiaire de la Ras homologous (Rho) guanosine triphosphatase (GTPase) pour favoriser la forme cellulaire et activer leur mobilité ; la perte de cytokératines et d'autres marqueurs spécifiques de cellules épithéliales; et la formation de matrice de type interstitiel tel que le collagène de type I et III et de fibronectine.
+division cellulaire asymétrique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mésenchyme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9senchyme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Transition épithélio-mésenchymateuse</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Transitions épithélio-mésenchymateuses (EMT) et Cancer</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les caractéristiques moléculaires de l'EMT : celles-ci incluent une sous-régulation de E-cadhérine responsable de la perte de l'adhésion intercellulaire et un détachement subséquent d'avec l'épithélium parent; une sur-régulation de protéases dégradant la matrice qui digèrent la membrane basale épithéliale ; une sur-régulation et/ou une translocation de facteurs de transcription sous-tendant le programme génétique spécifique de l'EMT, à savoir la caténine beta, les Smads, et des membres de la famille Snail, la création de l'expression de protéines mésenchymateuse tel que la fibroblast specific protein 1 (FSP1), de vimentine, et d'actine alpha de muscle lisse, la réorganisation cytosquelettique par l'intermédiaire de la Ras homologous (Rho) guanosine triphosphatase (GTPase) pour favoriser la forme cellulaire et activer leur mobilité ; la perte de cytokératines et d'autres marqueurs spécifiques de cellules épithéliales; et la formation de matrice de type interstitiel tel que le collagène de type I et III et de fibronectine.
 Implication dans la dissémination métastasique : dans le processus de cancerisation, les métastases sont produites par une transition éphitélium mésenchyme permettant le détachement et la dissémination des cellules cancéreuses dans tout l'organisme. on peut observer une répression de la E-cadhérine dans les carcinomes invasifs et une expression de Snail-1 dans les carcinomes invasifs.
-Implication dans un milieu sain : ce type de processus s'observe aussi au niveau de tissus sains comme dans le pancréas avec la migration des cellules beta et gamma dans les îlots de Langerhans ainsi que dans le rein et dans l'organe de l'audition (organe de Corti) lors de l'ouverture du tunnel de Corti entre les cellules piliers et lors de la formation des espaces de Nuel entre les cellules de Deiters et leur cellules sensorielles externes (celui-ci est en cours d'études)[1]. Il intervient aussi lors de la formation des canaux semi-circulaires de l'oreille interne permettant les fonctions vestibulaires de celle-ci.</t>
+Implication dans un milieu sain : ce type de processus s'observe aussi au niveau de tissus sains comme dans le pancréas avec la migration des cellules beta et gamma dans les îlots de Langerhans ainsi que dans le rein et dans l'organe de l'audition (organe de Corti) lors de l'ouverture du tunnel de Corti entre les cellules piliers et lors de la formation des espaces de Nuel entre les cellules de Deiters et leur cellules sensorielles externes (celui-ci est en cours d'études). Il intervient aussi lors de la formation des canaux semi-circulaires de l'oreille interne permettant les fonctions vestibulaires de celle-ci.</t>
         </is>
       </c>
     </row>
